--- a/data/05_input/zm.rn20e.xlsx
+++ b/data/05_input/zm.rn20e.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0F227437-DDA7-4970-938E-4B824905CC47/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/EFCB4329-B5AE-4E6A-8926-CAC76B8C4211/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB7C1A-9953-AD4A-9254-5AFFBD8789C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C121F2-AB96-F546-BD12-DC0EA9367F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="9420" yWindow="4900" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,178 +63,181 @@
     <t>B73xPH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index7_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index7_S21_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BP2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index8_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index8_S22_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BP3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index9_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index9_S23_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BW1</t>
   </si>
   <si>
     <t>B73xW22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index1_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index1_S15_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BW2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index2_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index2_S16_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BW3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index3_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index3_S17_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PB1</t>
   </si>
   <si>
     <t>PH207xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index4_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index4_S18_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PB2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index5_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index5_S19_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PB3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index6_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index6_S20_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PW1</t>
   </si>
   <si>
     <t>PH207xW22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index10_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index10_S24_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PW2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index11_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index11_S25_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>PW3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index12_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index12_S26_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WB1</t>
   </si>
   <si>
     <t>W22xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index13_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index13_S27_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WB2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index14_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index14_S28_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WB3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index23_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index23_S33_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WP1</t>
   </si>
   <si>
     <t>W22xPH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index25_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index25_S34_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WP2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index27_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index27_S35_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WP3</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index19_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_064/SNA_Pool7_Index19_S29_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index7_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index7_S21_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index8_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index8_S22_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index9_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index9_S23_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index1_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index1_S15_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index2_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index2_S16_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index3_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index3_S17_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index4_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index4_S18_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index5_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index5_S19_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index6_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index6_S20_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index10_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index10_S24_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index11_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index11_S25_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index12_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index12_S26_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index13_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index13_S27_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index14_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index14_S28_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index23_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index23_S33_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index25_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index25_S34_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index27_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index27_S35_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index19_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/SNA_Pool7_Index19_S29_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,19 +643,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -663,19 +666,19 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -686,359 +689,359 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
